--- a/data/case1/5/V2_6.xlsx
+++ b/data/case1/5/V2_6.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999155706853</v>
+        <v>0.99999999139206652</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99614786345059003</v>
+        <v>0.99614353220829011</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9841605261909887</v>
+        <v>0.9841419588814837</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.98114810647467143</v>
+        <v>0.98111905064959615</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.97526849039494645</v>
+        <v>0.97522853960338773</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.96279840840849151</v>
+        <v>0.96271625872445843</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.96220796967097644</v>
+        <v>0.96206896126411823</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.95671889579219149</v>
+        <v>0.95657274608032017</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.95383373113794634</v>
+        <v>0.95363684938714854</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.94926302159837384</v>
+        <v>0.94903458667400153</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.94875630175693537</v>
+        <v>0.94852160991008683</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.94804801930920091</v>
+        <v>0.94780141014234842</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.94558836864292461</v>
+        <v>0.94529799062512665</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.94497246287818637</v>
+        <v>0.94466720298069229</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.94597555556363644</v>
+        <v>0.94565292149386071</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.94346934992336118</v>
+        <v>0.94314671660057847</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.93976171024657518</v>
+        <v>0.93943907972594354</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.93865281836192005</v>
+        <v>0.93833018914454025</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99330724955394567</v>
+        <v>0.99329608301003702</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98619026085285533</v>
+        <v>0.98617910410290133</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98479178410550294</v>
+        <v>0.98478062918799658</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98352727925449024</v>
+        <v>0.98351612463750204</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.97712574978770073</v>
+        <v>0.97710718382372219</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.9641048867391131</v>
+        <v>0.96408632127683336</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.95764790067602523</v>
+        <v>0.95762933570793396</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.9621380605762051</v>
+        <v>0.96205566224592876</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.96147246686867449</v>
+        <v>0.96138970163837234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.958424255162593</v>
+        <v>0.95835320400411561</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.94609474489515633</v>
+        <v>0.94602525361685796</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.94091586068389033</v>
+        <v>0.94084606705260398</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.93326347474570137</v>
+        <v>0.93319368946129144</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.93158423010401392</v>
+        <v>0.93151444664805738</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.931064230622489</v>
+        <v>0.93099444742663096</v>
       </c>
     </row>
   </sheetData>
